--- a/Timelog_4900.xlsx
+++ b/Timelog_4900.xlsx
@@ -1,19 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siegfriedhaaan/Work_/Senior/4900/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siegfriedhaaan/python_vsc/Capstone_NBA_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5F9C431-DCA3-D943-8D74-E04C8C69F9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3EDC22-2310-8C4A-AAE6-50B2E885237F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{34904425-E178-9C4C-A8D3-775683F791F3}"/>
+    <workbookView xWindow="23160" yWindow="500" windowWidth="28040" windowHeight="15960" firstSheet="1" activeTab="15" xr2:uid="{34904425-E178-9C4C-A8D3-775683F791F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Week 1" sheetId="17" r:id="rId2"/>
+    <sheet name="Week 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Week 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Week 4" sheetId="5" r:id="rId5"/>
+    <sheet name="Week 5" sheetId="6" r:id="rId6"/>
+    <sheet name="Week 6" sheetId="7" r:id="rId7"/>
+    <sheet name="Week 7" sheetId="8" r:id="rId8"/>
+    <sheet name="Week 8" sheetId="9" r:id="rId9"/>
+    <sheet name="Week 9" sheetId="10" r:id="rId10"/>
+    <sheet name="Week 10" sheetId="11" r:id="rId11"/>
+    <sheet name="Week 11" sheetId="12" r:id="rId12"/>
+    <sheet name="Week 12" sheetId="13" r:id="rId13"/>
+    <sheet name="Week 13" sheetId="14" r:id="rId14"/>
+    <sheet name="Week 14" sheetId="15" r:id="rId15"/>
+    <sheet name="Week 15" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="141">
   <si>
     <t>Date</t>
   </si>
@@ -61,6 +76,405 @@
   <si>
     <t>Main challenges during this phase? Were you able to meet the challenge, if so, what
 helped? It not, what could help?</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Understanding how to access complete datasets efficiently.</t>
+  </si>
+  <si>
+    <t>Reviewed NBA API documentation, exploring endpoints for player stats</t>
+  </si>
+  <si>
+    <t>Tested API endpoints  to retrieve player data.</t>
+  </si>
+  <si>
+    <t>Investigated API rate limits and strategies for handling timeouts.</t>
+  </si>
+  <si>
+    <t>Timeout errors and difficulty in retrieving stats for all players at once.</t>
+  </si>
+  <si>
+    <t>Experimenting with delays to avoid overwhelming the API.</t>
+  </si>
+  <si>
+    <t>4 hours</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Wrote Python scripts to query NBA API for individual player stats by IDs.</t>
+  </si>
+  <si>
+    <t>Searched for alternative approaches, such as using multiple endpoints.</t>
+  </si>
+  <si>
+    <t>Logged challenges with API usage, noting key limitations.</t>
+  </si>
+  <si>
+    <t>Struggling with incomplete data and redundant API calls.</t>
+  </si>
+  <si>
+    <t>Balancing exploration with progress on cleaning data for analysis.</t>
+  </si>
+  <si>
+    <t>Deciding whether to continue with the NBA API or switch to scraping.</t>
+  </si>
+  <si>
+    <t>Used API data to start creating initial player datasets.</t>
+  </si>
+  <si>
+    <t>Tried to consolidate multiple API responses into a single usable dataset.</t>
+  </si>
+  <si>
+    <t>Evaluated progress and weighed the pros/cons of continuing with the API.</t>
+  </si>
+  <si>
+    <t>Duplicated player entries due to mismatched IDs; refined queries.</t>
+  </si>
+  <si>
+    <t>Slow queries due to rate limiting; incomplete results for low-minute players.</t>
+  </si>
+  <si>
+    <t>Exploring alternatives, including web scraping.</t>
+  </si>
+  <si>
+    <t>6 hours</t>
+  </si>
+  <si>
+    <t>Data Cleaning</t>
+  </si>
+  <si>
+    <t>Tested basic web scraping techniques using BeautifulSoup</t>
+  </si>
+  <si>
+    <t>Began scraping Basketball Reference for college season averages.</t>
+  </si>
+  <si>
+    <t>Addressing  cases with missing player data.</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>Office Hours</t>
+  </si>
+  <si>
+    <t>Deadline reminders and project ideas</t>
+  </si>
+  <si>
+    <t>Deadline reminders and project ideas, NYT internship</t>
+  </si>
+  <si>
+    <t>Cleaned initial scrape results</t>
+  </si>
+  <si>
+    <t>Expanded scraping to include career averages from Basketball Reference.</t>
+  </si>
+  <si>
+    <t>Handling rate limits and missing player data during scraping.</t>
+  </si>
+  <si>
+    <t>Processed scraped data</t>
+  </si>
+  <si>
+    <t>Addressing discrepancies between datasets</t>
+  </si>
+  <si>
+    <t>Resolving inconsistencies in team and player data across years. Thinking of how to format data, multiple ways perhaps</t>
+  </si>
+  <si>
+    <t>Cleaned and merged NCAA datasets with scraped NBA career stats.</t>
+  </si>
+  <si>
+    <t>Matching player data across datasets while avoiding duplication.</t>
+  </si>
+  <si>
+    <t>BC Alumni from Amazon visited class and explained some Amazon processes.</t>
+  </si>
+  <si>
+    <t>Thinking of implementing the PRFAQ process to my project.</t>
+  </si>
+  <si>
+    <t>EDA Preparation</t>
+  </si>
+  <si>
+    <t>Finalized cleaning steps and prepared datasets for exploratory analysis.</t>
+  </si>
+  <si>
+    <t>Ensuring uniformity across datasets before analysis begins.</t>
+  </si>
+  <si>
+    <t>Research/EDA</t>
+  </si>
+  <si>
+    <t>Identifying patterns and starting to define categories for players.</t>
+  </si>
+  <si>
+    <t>Explored trends in NCAA player stats across conferences.</t>
+  </si>
+  <si>
+    <t>Visualization</t>
+  </si>
+  <si>
+    <t>Created histograms and boxplots to visualize stat distributions by conference.</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>Compared conference stats</t>
+  </si>
+  <si>
+    <t>Standardized NCAA and NBA datasets for consistent feature engineering.</t>
+  </si>
+  <si>
+    <t>Finalizing adjustments for alignment issues with player names.</t>
+  </si>
+  <si>
+    <t>Conducted deeper analysis into trends for impact scores across player groups.</t>
+  </si>
+  <si>
+    <t>Addressed remaining issues with aligning NCAA and NBA data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standardizing player names and filtering data for key features </t>
+  </si>
+  <si>
+    <t>Identifying meaningful relationships to guide impact scoring.</t>
+  </si>
+  <si>
+    <t>Explored correlations between NCAA stats and getting into NBA.</t>
+  </si>
+  <si>
+    <t>Refined visualizations showing stat trends for NCAA players entering the NBA.</t>
+  </si>
+  <si>
+    <t>Ensuring visuals effectively highlight patterns in player performance.</t>
+  </si>
+  <si>
+    <t>Compared distributions of impact scores for players across NCAA conferences.</t>
+  </si>
+  <si>
+    <t>Handling skewed distributions caused by low-minute players.</t>
+  </si>
+  <si>
+    <t>PRFAQ Documentation</t>
+  </si>
+  <si>
+    <t>Drafting my PRFAQ</t>
+  </si>
+  <si>
+    <t>Data Refinement</t>
+  </si>
+  <si>
+    <t>Verified consistency in stats across years and conferences.</t>
+  </si>
+  <si>
+    <t>Preparing the dataset for future clustering and machine learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/19/24	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/21/24	</t>
+  </si>
+  <si>
+    <t>Completed scripts to scrape NCAA stats for the top five conferences (2003–24).</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Computed percentile-based impact scores and explored clustering readiness.</t>
+  </si>
+  <si>
+    <t>Deciding whether to move forward with K-Means or a simpler approach.</t>
+  </si>
+  <si>
+    <t>Coding/Research</t>
+  </si>
+  <si>
+    <t>Finalized derived features for clustering inputs</t>
+  </si>
+  <si>
+    <t>Refining features to improve clustering results.</t>
+  </si>
+  <si>
+    <t>Created initial visuals to compare clustering readiness across metrics.</t>
+  </si>
+  <si>
+    <t>Validating whether input features effectively separate player tiers.</t>
+  </si>
+  <si>
+    <t>Talking about future as a professional affected by election</t>
+  </si>
+  <si>
+    <t>Not sure what to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting started and seeing where I could get my data from. </t>
+  </si>
+  <si>
+    <t>This API isn't made by the NBA and the API they do have isn't publicly accessible</t>
+  </si>
+  <si>
+    <t>Getting data from the API</t>
+  </si>
+  <si>
+    <t>Starting to have problems with reading documentation and rate limiting</t>
+  </si>
+  <si>
+    <t>Format data that I've gotten from the API so far</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API is proving hard to work with so I'm thinking of scraping data. </t>
+  </si>
+  <si>
+    <t>Continuing to grab my data but scraping seems to be the best choice.</t>
+  </si>
+  <si>
+    <t>Coping with starting from square one as I've already spent time on the API.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building scripts to automate scrapes, then cleaning data. </t>
+  </si>
+  <si>
+    <t>Cleaning and formatting</t>
+  </si>
+  <si>
+    <t>I have so many ideas for how to analyze this that I want to format the data in so many ways. I need to consolidate my analysis and keep the project simple. I'm doing the Amazon PRFAQ process to keep the project honest.</t>
+  </si>
+  <si>
+    <t>Cleaning</t>
+  </si>
+  <si>
+    <t>So many nuances that I want to worry about in terms of which segment of college players that I want to scrape.</t>
+  </si>
+  <si>
+    <t>Starting on EDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting back into the swing of things by cleaning data and getting it in better shape for EDA. I had some issues with EDA last time due to some formatting issues between datasets. </t>
+  </si>
+  <si>
+    <t>I was confused with what the issue was when it came to building these tables that said who from college made it to the NBA. After a while, I saw that names were formatted differently between the college and NBA data sets.</t>
+  </si>
+  <si>
+    <t>Cleaning and EDA</t>
+  </si>
+  <si>
+    <t>Having a hard time focusing on this project after the election. This election directly affected me and I went to office hours for some words of wisdom. Need a story of somebody that's been in my position and made it out fine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classifying NBA players into tiers. </t>
+  </si>
+  <si>
+    <t>Having a hard time going back and forth between reformatting data and analyzing. I wanted to first categorize players using percentiles but maybe classifying using the data itself through k-means is a better idea?</t>
+  </si>
+  <si>
+    <t>Analyzing and creating models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline is approaching and I'm about 65-70% done. Need to focus on having a finished product instead of being fancy. </t>
+  </si>
+  <si>
+    <t>Scraping is way easier than using the API. But I fear that I need to think about how I'm going to account for data outliers and why they occur. I should probably take players that average more than 15 min and 20 games per season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDA is my favorite part! </t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Clustering based on impact score formula that I made</t>
+  </si>
+  <si>
+    <t>There's a problem because my clusters are containing players I don't want them to</t>
+  </si>
+  <si>
+    <t>Reformatting data to include per 36 minute stats</t>
+  </si>
+  <si>
+    <t>Perhaps using per 36 minute stats will get rid of players that I don't want in certain clusters</t>
+  </si>
+  <si>
+    <t>Deciding between per 36 minute stats or raw career average. Even debating using pure percentile based classification method.</t>
+  </si>
+  <si>
+    <t>Do I keep it simple or be fancy and let the data decide. Would using percentiles make my data more accurate? Seems like the clustering is more accurate on the 36 minute stats but there's still players I don't want in certain tiers</t>
+  </si>
+  <si>
+    <t>Using a different formula to determine impact score.</t>
+  </si>
+  <si>
+    <t>Deriving it from the PIE stat, but instead of accounting for games played, I won't</t>
+  </si>
+  <si>
+    <t>I'm getting the same issue and having trouble thinking about what to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So it looks like no matter what I do, k means will classify players that I don't want classified as elite into the elite tier. This makes sense since K-Means prioritizes variance minimization, not basketball context. So I'm going to pivot and use percentiles as my classifiers since percentiles create clear thresholds (e.g., Top 10% as elite) that better reflect basketball hierarchies, robust against skewed distributions or outliers, and it's probably easier to understand instead of k means techniques. </t>
+  </si>
+  <si>
+    <t>Deciding on model selection and looking at how I can classify players into tiers.</t>
+  </si>
+  <si>
+    <t>Since I'm trying to predict the first 4 years of a college player, it makes sense to use NBA players' first four years instead of their entire career averages in my dataset. Time to reformat once again.</t>
+  </si>
+  <si>
+    <t>Focusing on players' first four years will get rid of plenty of players since it often takes more than 4 years for a player to break out.</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Implementing the PR FAQ process within my project so stakeholders and users will have a clearer idea of what I'm trying to make.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decided on using random forest regressor and wrapping it around a multi output regressor to simultaneously predict multiple features. </t>
+  </si>
+  <si>
+    <t>2 Hours</t>
+  </si>
+  <si>
+    <t>Creating slides</t>
+  </si>
+  <si>
+    <t>Doing resiudal analysis to see how well the predictions are turning out. Also using statistical methods to see how accurate my model is. Also creating the function that will do the predicting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The product works, it's just not as accurate as I want it to be. Of course it'll need more work. </t>
+  </si>
+  <si>
+    <t>Reflection &amp; Documentation</t>
+  </si>
+  <si>
+    <t>Having a final product that works, creating slides and PRFAQ for better understanding for users. It's essentially a fancy Read me file.</t>
+  </si>
+  <si>
+    <t>Really had trouble coping with the imperfections of my model. For some reason, I thought what I would make on the first attempt would be at least 70% accurate and be a ground breaker. But reflecting allowed me to be realistic and understand that if I was able to do that, NBA front offices probably wouldn't have a problem predicting which college players will excel. I'm proud of my work and will definitely improve on what I have beyond the semester.</t>
+  </si>
+  <si>
+    <t>Orientation</t>
   </si>
 </sst>
 </file>
@@ -91,7 +505,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -123,14 +537,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -138,6 +564,73 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA0978D-86F3-A646-9032-F4C70B0DC251}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,89 +978,89 @@
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
     <col min="9" max="9" width="24.5" customWidth="1"/>
     <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -577,8 +1070,2271 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A3A060-2041-AF40-A3AE-D723A82F92DF}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="E2" s="12">
+        <v>45595</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E3" s="13"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E4" s="13"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B01ED9-97A0-884D-97DD-CE7AD9287F76}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E2" s="12">
+        <v>45609</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E3" s="13">
+        <v>45611</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E4" s="13"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B7FAF5-59C9-4549-A80D-D33D2A1A15BA}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E2" s="12">
+        <v>45612</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E3" s="13">
+        <v>45613</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E4" s="13">
+        <v>45614</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E5" s="13">
+        <v>45614</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2514A53-813B-6B4C-9CC4-9F8E8BFDFEA3}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E2" s="12">
+        <v>45616</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E3" s="13">
+        <v>45618</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E4" s="13">
+        <v>45620</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="13"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD67FFB-A4D1-3044-AE46-7870DE7AFB65}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E2" s="12">
+        <v>45257</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E3" s="13">
+        <v>45259</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E4" s="13">
+        <v>45261</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0374A45-16E5-3A41-BA14-7B4EC7B96C5F}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.5" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E2" s="21">
+        <v>45628</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="E3" s="21">
+        <v>45629</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="E4" s="21">
+        <v>45630</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E5" s="25">
+        <v>45631</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E6" s="26">
+        <v>45632</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A97070-C5E2-4A44-B68E-689A978D8253}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.1640625" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="E2" s="21">
+        <v>45633</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="E3" s="21">
+        <v>45634</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="E4" s="21">
+        <v>45635</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="E5" s="21">
+        <v>45636</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="E6" s="21">
+        <v>45637</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="E7" s="26">
+        <v>45638</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="24"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="24"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F690207-5CBA-D045-AFE5-DFD5696D01ED}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="E2" s="21">
+        <v>45532</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="24"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="24"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="24"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="24"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="24"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12155C40-D0A0-9A45-A79B-E1A36696943A}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="33.83203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E2" s="18">
+        <v>45545</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E3" s="7">
+        <v>45547</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E4" s="13">
+        <v>45551</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7A13BE-ECD2-594C-B2E4-9947D23D298F}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E2" s="11">
+        <v>45552</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E4" s="8">
+        <v>45549</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FD9126-DAEB-C34E-802D-FEC3040DB7BF}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E2" s="12">
+        <v>45559</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E3" s="13">
+        <v>45561</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F41B33-AC0B-2D41-BAA6-4A2F3EA6D941}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E2" s="13">
+        <v>45563</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E3" s="12">
+        <v>45567</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E4" s="13">
+        <v>45569</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="13">
+        <v>45572</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0456E6A8-DE53-7B4D-AFF3-6A0C933ED58A}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E2" s="12">
+        <v>45573</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E3" s="13">
+        <v>45575</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E4" s="12">
+        <v>45577</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E5" s="13">
+        <v>45579</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="12"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAD2C7B-F261-B34B-8EB3-85E0FE591D05}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="E2" s="13">
+        <v>45583</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E3" s="13">
+        <v>45585</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E4" s="13">
+        <v>45581</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892D7A78-B3B5-D440-A97C-CFD4F5B44940}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E2" s="12">
+        <v>45588</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E3" s="13">
+        <v>45590</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="E4" s="13">
+        <v>45592</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
